--- a/pgpractice/Data Inserts/articles.xlsx
+++ b/pgpractice/Data Inserts/articles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\pgpractice\Data Inserts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\pgpractice\Data Inserts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6AC8AA-FBC7-44C9-AE5F-6E46043E5A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11106D5-29A1-4F78-B863-85C24987BEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13740" yWindow="750" windowWidth="25425" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>10.1002/adfm.201002729</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>10.1021/ma2000515</t>
-  </si>
-  <si>
-    <t>10.5012/bkcs.2014.35.88.22770</t>
   </si>
   <si>
     <t>10.1021/jp4116047</t>
@@ -405,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +415,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -508,7 +505,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -518,7 +515,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -534,11 +531,6 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
